--- a/ValueSet-phenotype-codes.xlsx
+++ b/ValueSet-phenotype-codes.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://ncpi-fhir.github.io/ncpi-fhir-ig/ValueSet/phenotype-codes</t>
+    <t>https://ncpi-fhir.github.io/ncpi-fhir-ig-v02/ValueSet/phenotype-codes</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T19:24:22+00:00</t>
+    <t>2022-05-26T12:34:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-phenotype-codes.xlsx
+++ b/ValueSet-phenotype-codes.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://ncpi-fhir.github.io/ncpi-fhir-ig-v02/ValueSet/phenotype-codes</t>
+    <t>https://ncpi-fhir.github.io/ncpi-fhir-ig/ValueSet/phenotype-codes</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T12:34:56-05:00</t>
+    <t>2021-12-13T19:24:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-phenotype-codes.xlsx
+++ b/ValueSet-phenotype-codes.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://ncpi-fhir.github.io/ncpi-fhir-ig/ValueSet/phenotype-codes</t>
+    <t>https://ncpi-fhir.github.io/ncpi-fhir-ig-v02/ValueSet/phenotype-codes</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T19:24:22+00:00</t>
+    <t>2022-05-26T18:07:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-phenotype-codes.xlsx
+++ b/ValueSet-phenotype-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T18:07:50+00:00</t>
+    <t>2022-05-26T18:08:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-phenotype-codes.xlsx
+++ b/ValueSet-phenotype-codes.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://ncpi-fhir.github.io/ncpi-fhir-ig-v02/ValueSet/phenotype-codes</t>
+    <t>https://nih-ncpi.github.io/ncpi-fhir-ig/ValueSet/phenotype-codes</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T18:08:08+00:00</t>
+    <t>2022-05-26T18:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-phenotype-codes.xlsx
+++ b/ValueSet-phenotype-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T18:29:57+00:00</t>
+    <t>2022-05-26T18:31:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
